--- a/results/FrequencyTables/26796669_gPol2.xlsx
+++ b/results/FrequencyTables/26796669_gPol2.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00351604194135744</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00342186224649965</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.00257424499277956</v>
       </c>
       <c r="E2">
-        <v>0.05</v>
+        <v>0.00838199284234319</v>
       </c>
       <c r="F2">
-        <v>0.95</v>
+        <v>0.965655804608526</v>
       </c>
       <c r="G2">
-        <v>0.97</v>
+        <v>0.990833176367175</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00021975262133484</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00351604194135744</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.00100458341181641</v>
       </c>
       <c r="K2">
-        <v>0.95</v>
+        <v>0.989985559113455</v>
       </c>
       <c r="L2">
-        <v>0.04</v>
+        <v>0.0896904627362341</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.996421171595404</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.000816224022100835</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.0181766811075532</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.000251145852954103</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0.997300182080743</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.000470898474288943</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00508570352232059</v>
       </c>
       <c r="T2">
-        <v>0.05</v>
+        <v>0.00929239655930181</v>
       </c>
       <c r="U2">
-        <v>0.95</v>
+        <v>0.976706222138507</v>
       </c>
       <c r="V2">
-        <v>0.05</v>
+        <v>0.00831920637910467</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00141269542286683</v>
       </c>
       <c r="X2">
-        <v>0.04</v>
+        <v>0.140861430275633</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.000502291705908206</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>6.27864632385258e-05</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.000753437558862309</v>
       </c>
       <c r="E3">
-        <v>0.95</v>
+        <v>0.989608840334024</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0113643498461732</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.00021975262133484</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00021975262133484</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0460538707854587</v>
       </c>
       <c r="J3">
-        <v>0.95</v>
+        <v>0.989483267407547</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00021975262133484</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.000376718779431155</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>3.13932316192629e-05</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.000408112011050418</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.0414704589690463</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.000784830790481572</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.000282539084573366</v>
       </c>
       <c r="R3">
-        <v>0.71</v>
+        <v>0.458403968104477</v>
       </c>
       <c r="S3">
-        <v>0.6</v>
+        <v>0.52131600426948</v>
       </c>
       <c r="T3">
-        <v>0.95</v>
+        <v>0.98295347523074</v>
       </c>
       <c r="U3">
-        <v>0.05</v>
+        <v>0.00976329503359076</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.00100458341181641</v>
       </c>
       <c r="W3">
-        <v>0.05</v>
+        <v>0.010862058140265</v>
       </c>
       <c r="X3">
-        <v>0.05</v>
+        <v>0.00897846424310919</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.95</v>
+        <v>0.987788032900107</v>
       </c>
       <c r="C4">
-        <v>0.95</v>
+        <v>0.988007785521442</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.993344634896716</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.00113015633829346</v>
       </c>
       <c r="F4">
-        <v>0.05</v>
+        <v>0.0129967978903748</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.00734601619890752</v>
       </c>
       <c r="H4">
-        <v>0.95</v>
+        <v>0.991304074841464</v>
       </c>
       <c r="I4">
-        <v>0.05</v>
+        <v>0.00813084698938909</v>
       </c>
       <c r="J4">
-        <v>0.05</v>
+        <v>0.00885289131663213</v>
       </c>
       <c r="K4">
-        <v>0.05</v>
+        <v>0.00891567777987066</v>
       </c>
       <c r="L4">
-        <v>0.96</v>
+        <v>0.888930746531048</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00128712249638978</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.00276260438249513</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.27864632385258e-05</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.000282539084573366</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.00043950524266968</v>
       </c>
       <c r="S4">
-        <v>0.4</v>
+        <v>0.42292961637471</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.00282539084573366</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.00361022163621523</v>
       </c>
       <c r="V4">
-        <v>0.95</v>
+        <v>0.986469517172098</v>
       </c>
       <c r="W4">
-        <v>0.95</v>
+        <v>0.987474100583914</v>
       </c>
       <c r="X4">
-        <v>0.9</v>
+        <v>0.816286808564074</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.05</v>
+        <v>0.00775412820995793</v>
       </c>
       <c r="C5">
-        <v>0.05</v>
+        <v>0.00800527406291204</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.00263703145601808</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.000156966158096314</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.00191498712877504</v>
       </c>
       <c r="G5">
-        <v>0.03</v>
+        <v>0.000941796948577887</v>
       </c>
       <c r="H5">
-        <v>0.05</v>
+        <v>0.00813084698938909</v>
       </c>
       <c r="I5">
-        <v>0.95</v>
+        <v>0.931908080617819</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.000188359389715577</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.000565078169146732</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00339046901488039</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.000376718779431155</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.995479374646826</v>
       </c>
       <c r="O5">
-        <v>0.99</v>
+        <v>0.930526778426571</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.998461731650656</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.00153826834934388</v>
       </c>
       <c r="R5">
-        <v>0.28</v>
+        <v>0.513938594838953</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.0367300809945376</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.00326489608840334</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00662397187166447</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00320210962516481</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>9.41796948577887e-05</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00191498712877504</v>
       </c>
     </row>
   </sheetData>
